--- a/exemplos_tutorial_quimica_nova/exemplo1_p2.xlsx
+++ b/exemplos_tutorial_quimica_nova/exemplo1_p2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documentos\UFSCar\TCC\playlist23\exemplos_tutorial_quimica_nova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documentos\UFSCar\TCC\playlist24\exemplos_tutorial_quimica_nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D15FF8-BFA9-4845-851A-00B9FCADFEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8CA4D1-30A6-4AE5-A9B4-EB0987A36417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,18 +41,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>1</t>
+    <t>media</t>
   </si>
   <si>
-    <t>2</t>
+    <t>v1</t>
   </si>
   <si>
-    <t>12</t>
+    <t>v2</t>
   </si>
   <si>
-    <t>media</t>
+    <t>v1v2</t>
+  </si>
+  <si>
+    <t>fluor Sb</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -105,6 +115,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F5997D8-73DF-44E4-9D12-9A21EF8D2670}" name="Tabela1" displayName="Tabela1" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{2F5997D8-73DF-44E4-9D12-9A21EF8D2670}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
+    <sortCondition ref="B1:B5"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3985D844-435A-47C7-BD11-17580BB69B61}" name="v1"/>
+    <tableColumn id="2" xr3:uid="{C3964C3C-982F-47AD-A1E4-59AE870796DD}" name="v2"/>
+    <tableColumn id="3" xr3:uid="{B469C49B-8C15-4BE9-A94A-DDFE4BE6AFD4}" name="v1v2"/>
+    <tableColumn id="4" xr3:uid="{A58421E9-6106-4AAF-B4C6-52E7E1EDA101}" name="fluor Sb"/>
+    <tableColumn id="5" xr3:uid="{39795390-B290-42FF-8CD6-1C7E5F5D4ED3}" name="Coluna1"/>
+    <tableColumn id="6" xr3:uid="{6C6BEC37-920F-44AA-B815-4F7E881B4950}" name="media" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Tabela1[[#This Row],[fluor Sb]:[Coluna1]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,33 +400,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="10" width="10.28515625" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -407,38 +442,59 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>136.6</v>
+        <v>178.4</v>
+      </c>
+      <c r="E2">
+        <v>167.5</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(Tabela1[[#This Row],[fluor Sb]:[Coluna1]])</f>
+        <v>172.95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>-1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
       <c r="D3">
-        <v>143.30000000000001</v>
+        <v>86.6</v>
+      </c>
+      <c r="E3">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(Tabela1[[#This Row],[fluor Sb]:[Coluna1]])</f>
+        <v>88.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4">
-        <v>177.95</v>
+        <v>225.7</v>
+      </c>
+      <c r="E4">
+        <v>218.1</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(Tabela1[[#This Row],[fluor Sb]:[Coluna1]])</f>
+        <v>221.89999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -449,11 +505,21 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>132.5</v>
+        <v>195.6</v>
+      </c>
+      <c r="E5">
+        <v>189.2</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(Tabela1[[#This Row],[fluor Sb]:[Coluna1]])</f>
+        <v>192.39999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
